--- a/xxxxx005_RPC/460_Portmap.xlsx
+++ b/xxxxx005_RPC/460_Portmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1709CF9-353D-4361-B10B-D28ABF812B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE229D5A-BC27-4B56-BE55-F72F095A50D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="3465" windowWidth="11235" windowHeight="11640" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="エラー番号一覧" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>意味</t>
     <rPh sb="0" eb="2">
@@ -86,13 +86,29 @@
   </si>
   <si>
     <t>UDP/IPのプロトコル番号</t>
+  </si>
+  <si>
+    <r>
+      <t>"RPC message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +129,21 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,7 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -529,7 +563,7 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -543,13 +577,18 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xxxxx005_RPC/460_Portmap.xlsx
+++ b/xxxxx005_RPC/460_Portmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE229D5A-BC27-4B56-BE55-F72F095A50D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C8EBE-3D13-46C4-8B5E-9A269BD56604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="18420" windowHeight="12060" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="エラー番号一覧" sheetId="2" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="1"/>
@@ -132,7 +132,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -140,7 +140,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
@@ -196,11 +196,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +522,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -563,7 +563,7 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -577,12 +577,12 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
